--- a/Дизайн интерьера.xlsx
+++ b/Дизайн интерьера.xlsx
@@ -11,18 +11,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>дизайн интерьера</t>
   </si>
   <si>
-    <t>пара</t>
-  </si>
-  <si>
-    <t>asdadas</t>
-  </si>
-  <si>
-    <t>sfdsdfsd</t>
+    <t>Декор</t>
+  </si>
+  <si>
+    <t>дизайн студии (142 961)</t>
+  </si>
+  <si>
+    <t>дизайн прихожей (88 365)</t>
+  </si>
+  <si>
+    <t>дизайн гостинной (6 874)</t>
+  </si>
+  <si>
+    <t>дизайн детской (79 201)</t>
+  </si>
+  <si>
+    <t>двухъярусная кровать	267897</t>
+  </si>
+  <si>
+    <t>детская комната для двоих детей	3936</t>
+  </si>
+  <si>
+    <t>детская комната для детей	11795</t>
+  </si>
+  <si>
+    <t>детская комната для разнополых детей	2616</t>
+  </si>
+  <si>
+    <t>детская мебель	322478</t>
+  </si>
+  <si>
+    <t>детские спальни	36246</t>
+  </si>
+  <si>
+    <t>детский гарнитур	10913</t>
+  </si>
+  <si>
+    <t>дизайн детской комнаты	39279</t>
+  </si>
+  <si>
+    <t>детские кровати	433822</t>
+  </si>
+  <si>
+    <t>детский лофт	4197</t>
+  </si>
+  <si>
+    <t>детские фотообои	12562</t>
+  </si>
+  <si>
+    <t>игровая комната	95507</t>
+  </si>
+  <si>
+    <t>интерьер детской	36303</t>
+  </si>
+  <si>
+    <t>комната для девочки	97683</t>
+  </si>
+  <si>
+    <t>комната для подростка	62620</t>
+  </si>
+  <si>
+    <t>комнаты для детей	49370</t>
+  </si>
+  <si>
+    <t>кровать домик	32001</t>
+  </si>
+  <si>
+    <t>детская кровать чердак	13595</t>
+  </si>
+  <si>
+    <t>комната для малыша	2117</t>
+  </si>
+  <si>
+    <t>комната для мальчика	69052</t>
+  </si>
+  <si>
+    <t>мебель для девочки	18445</t>
+  </si>
+  <si>
+    <t>мебель для подростка	12927</t>
+  </si>
+  <si>
+    <t>модульная детская	12172</t>
+  </si>
+  <si>
+    <t>обои в детскую комнату	12065</t>
+  </si>
+  <si>
+    <t>оформление детской комнаты	3839</t>
+  </si>
+  <si>
+    <t>подростковая мебель	11137</t>
+  </si>
+  <si>
+    <t>растения для детской	3112</t>
+  </si>
+  <si>
+    <t>декор для детской	2778</t>
+  </si>
+  <si>
+    <t>детский пол	26058</t>
+  </si>
+  <si>
+    <t>роспись стен в детской	987</t>
+  </si>
+  <si>
+    <t>стены в детской комнате	6612</t>
+  </si>
+  <si>
+    <t>освещение в детской комнате	698</t>
+  </si>
+  <si>
+    <t>освещение потолка в детской комнате	174</t>
+  </si>
+  <si>
+    <t>дизайн игровой комнаты	537</t>
+  </si>
+  <si>
+    <t>интерьер игровой	500</t>
+  </si>
+  <si>
+    <t>детское рабочее место	2165</t>
+  </si>
+  <si>
+    <t>рабочая зона в детской	1323</t>
+  </si>
+  <si>
+    <t>декор детской комнаты	1949</t>
+  </si>
+  <si>
+    <t>коврик пазл	27226</t>
+  </si>
+  <si>
+    <t>дизайн ванной (267 061)</t>
+  </si>
+  <si>
+    <t>дизайн кухни (538 925)</t>
+  </si>
+  <si>
+    <t>дизайн кухни студии (12 329)</t>
+  </si>
+  <si>
+    <t>интерьер кухни	244756</t>
+  </si>
+  <si>
+    <t>кухня гостиная	182763</t>
+  </si>
+  <si>
+    <t>маленькая кухня	250313</t>
+  </si>
+  <si>
+    <t>пол на кухне	56257</t>
+  </si>
+  <si>
+    <t>стены на кухне	88834</t>
+  </si>
+  <si>
+    <t>стили кухни	174742</t>
+  </si>
+  <si>
+    <t>фартук для кухни	183669</t>
+  </si>
+  <si>
+    <t>дизайн хрущевки (69 433)</t>
+  </si>
+  <si>
+    <t>стили дизайна интерьера (14 783)</t>
+  </si>
+  <si>
+    <t>дизайн магазина (31 003)</t>
+  </si>
+  <si>
+    <t>фэн шуй (56 092)</t>
   </si>
 </sst>
 </file>
@@ -402,11 +567,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,18 +583,406 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A58"/>
+    <mergeCell ref="B5:B45"/>
+    <mergeCell ref="B47:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
